--- a/leanCrm/datanew/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalAreas" sheetId="2" r:id="rId1"/>
     <sheet name="L1" sheetId="3" r:id="rId2"/>
     <sheet name="L2" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
+    <sheet name="L3" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -273,6 +275,99 @@
   </si>
   <si>
     <t>2.5</t>
+  </si>
+  <si>
+    <t>Porton Local L3</t>
+  </si>
+  <si>
+    <t>Marco Porton Local L3</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Local L3</t>
+  </si>
+  <si>
+    <t>Pared Frontal Local L3</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Local L3</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Local L3</t>
+  </si>
+  <si>
+    <t>Marco Ventana PLI Baño L3</t>
+  </si>
+  <si>
+    <t>Marco Puerta Rincon L3</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Rincon L3</t>
+  </si>
+  <si>
+    <t>Pared Frontal Rinco L3</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Rincon L3</t>
+  </si>
+  <si>
+    <t>Pared Frontal Baño L3</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Baño L3</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Baño L3</t>
+  </si>
+  <si>
+    <t>Filos Marco Ventana Baño L3</t>
+  </si>
+  <si>
+    <t>Filos Marco Puerta Interior L3</t>
+  </si>
+  <si>
+    <t>Filos Ventana L3</t>
+  </si>
+  <si>
+    <t>Filos Porton L3</t>
+  </si>
+  <si>
+    <t>Piso L3</t>
+  </si>
+  <si>
+    <t>Piso Rincon L3</t>
+  </si>
+  <si>
+    <t>Piso Baño L3</t>
+  </si>
+  <si>
+    <t>Guardascoba L3</t>
+  </si>
+  <si>
+    <t>Guardaescoba Rincon L3</t>
+  </si>
+  <si>
+    <t>Guardaescoba Baño L3</t>
+  </si>
+  <si>
+    <t>Techo L3</t>
+  </si>
+  <si>
+    <t>Techo Rincon L3</t>
+  </si>
+  <si>
+    <t>Techo Baño L3</t>
+  </si>
+  <si>
+    <t>Filos Columnas PFI Local  L2</t>
+  </si>
+  <si>
+    <t>Marco Ventana PLD Local L2</t>
+  </si>
+  <si>
+    <t>Pared Frontal Rincon L2</t>
+  </si>
+  <si>
+    <t>Filo Columna PLD Rincon L2</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2619,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3513,15 +3610,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3578,121 +3675,279 @@
       <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -4216,6 +4471,290 @@
       </c>
       <c r="G30" t="s">
         <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/leanCrm/datanew/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
@@ -2,28 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\leanCrm\datanew\physicalAreas\PhysicalAreas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalAreas" sheetId="2" r:id="rId1"/>
     <sheet name="L1" sheetId="3" r:id="rId2"/>
     <sheet name="L2" sheetId="1" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
-    <sheet name="L3" sheetId="4" r:id="rId5"/>
+    <sheet name="L3" sheetId="4" r:id="rId4"/>
+    <sheet name="L4" sheetId="7" r:id="rId5"/>
+    <sheet name="L5" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="200">
   <si>
     <t>name</t>
   </si>
@@ -280,9 +281,6 @@
     <t>Porton Local L3</t>
   </si>
   <si>
-    <t>Marco Porton Local L3</t>
-  </si>
-  <si>
     <t>Pared Fachada Interior Local L3</t>
   </si>
   <si>
@@ -295,18 +293,9 @@
     <t>Pared Lado Izquierdo Local L3</t>
   </si>
   <si>
-    <t>Marco Ventana PLI Baño L3</t>
-  </si>
-  <si>
-    <t>Marco Puerta Rincon L3</t>
-  </si>
-  <si>
     <t>Pared Fachada Interior Rincon L3</t>
   </si>
   <si>
-    <t>Pared Frontal Rinco L3</t>
-  </si>
-  <si>
     <t>Pared Lado Derecho Rincon L3</t>
   </si>
   <si>
@@ -319,45 +308,6 @@
     <t>Pared Lado Izquierdo Baño L3</t>
   </si>
   <si>
-    <t>Filos Marco Ventana Baño L3</t>
-  </si>
-  <si>
-    <t>Filos Marco Puerta Interior L3</t>
-  </si>
-  <si>
-    <t>Filos Ventana L3</t>
-  </si>
-  <si>
-    <t>Filos Porton L3</t>
-  </si>
-  <si>
-    <t>Piso L3</t>
-  </si>
-  <si>
-    <t>Piso Rincon L3</t>
-  </si>
-  <si>
-    <t>Piso Baño L3</t>
-  </si>
-  <si>
-    <t>Guardascoba L3</t>
-  </si>
-  <si>
-    <t>Guardaescoba Rincon L3</t>
-  </si>
-  <si>
-    <t>Guardaescoba Baño L3</t>
-  </si>
-  <si>
-    <t>Techo L3</t>
-  </si>
-  <si>
-    <t>Techo Rincon L3</t>
-  </si>
-  <si>
-    <t>Techo Baño L3</t>
-  </si>
-  <si>
     <t>Filos Columnas PFI Local  L2</t>
   </si>
   <si>
@@ -368,12 +318,318 @@
   </si>
   <si>
     <t>Filo Columna PLD Rincon L2</t>
+  </si>
+  <si>
+    <t>Marco Porton PFI Local L2</t>
+  </si>
+  <si>
+    <t>Marco  Porton PFI Local  L1</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Local L1</t>
+  </si>
+  <si>
+    <t>Puerta Baño L1</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Baño L1</t>
+  </si>
+  <si>
+    <t>Marco Puerta PFI Baño L1</t>
+  </si>
+  <si>
+    <t>Marco Puerta PFR Local L2</t>
+  </si>
+  <si>
+    <t>Marco Ventana PFR Local L2</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Baño L2</t>
+  </si>
+  <si>
+    <t>Marco Porton PFI Local L3</t>
+  </si>
+  <si>
+    <t>Filos Columnas PFI Local  L3</t>
+  </si>
+  <si>
+    <t>Marco Puerta PFR Local L3</t>
+  </si>
+  <si>
+    <t>Marco Ventana PFR Local L3</t>
+  </si>
+  <si>
+    <t>Pared Frontal Rincon L3</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Baño L3</t>
+  </si>
+  <si>
+    <t>Filo Columna PLD Baño L3</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI Baño L3</t>
+  </si>
+  <si>
+    <t>Puerta Local L3</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Local L4</t>
+  </si>
+  <si>
+    <t>Pared Frontal Local L4</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Local L4</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Local L4</t>
+  </si>
+  <si>
+    <t>Filos Columnas PFI Local  L4</t>
+  </si>
+  <si>
+    <t>Marco Puerta PFR Local L4</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Baño L4</t>
+  </si>
+  <si>
+    <t>Pared Frontal Baño L4</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Baño L4</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Baño L4</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI Baño L4</t>
+  </si>
+  <si>
+    <t>Marco Puerta PFI Local L4</t>
+  </si>
+  <si>
+    <t>Vacio PFR Local L4</t>
+  </si>
+  <si>
+    <t>Marco Puerta PLI Local L4</t>
+  </si>
+  <si>
+    <t>Piso Local  L2</t>
+  </si>
+  <si>
+    <t>Guardascoba Local  L2</t>
+  </si>
+  <si>
+    <t>Techo Local  L2</t>
+  </si>
+  <si>
+    <t>Piso Baño  L2</t>
+  </si>
+  <si>
+    <t>Guardascoba Baño  L2</t>
+  </si>
+  <si>
+    <t>Piso Rincon  L2</t>
+  </si>
+  <si>
+    <t>Guardascoba Rincon  L2</t>
+  </si>
+  <si>
+    <t>Techo Rincon  L2</t>
+  </si>
+  <si>
+    <t>Techo Baño  L2</t>
+  </si>
+  <si>
+    <t>Piso Local  L3</t>
+  </si>
+  <si>
+    <t>Guardascoba Local  L3</t>
+  </si>
+  <si>
+    <t>Techo Local  L3</t>
+  </si>
+  <si>
+    <t>Piso Rincon  L3</t>
+  </si>
+  <si>
+    <t>Guardascoba Rincon  L3</t>
+  </si>
+  <si>
+    <t>Techo Rincon  L3</t>
+  </si>
+  <si>
+    <t>Piso Baño  L3</t>
+  </si>
+  <si>
+    <t>Guardascoba Baño  L3</t>
+  </si>
+  <si>
+    <t>Techo Baño  L3</t>
+  </si>
+  <si>
+    <t>Piso Local  L4</t>
+  </si>
+  <si>
+    <t>Guardascoba Local  L4</t>
+  </si>
+  <si>
+    <t>Techo Local  L4</t>
+  </si>
+  <si>
+    <t>Pared Frontal Cocina L4</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Cocina L4</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Cocina L4</t>
+  </si>
+  <si>
+    <t>Marco Puerta PLD Cocina L4</t>
+  </si>
+  <si>
+    <t>Piso Cocina  L4</t>
+  </si>
+  <si>
+    <t>Guardascoba Cocina L4</t>
+  </si>
+  <si>
+    <t>Techo Cocina  L4</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Alcoba L4</t>
+  </si>
+  <si>
+    <t>Pared Frontal Alcoba L4</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Alcoba L4</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Alcoba L4</t>
+  </si>
+  <si>
+    <t>Filos Columna PFI Alcoba L4</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI Alcoba L4</t>
+  </si>
+  <si>
+    <t>Piso Alcoba  L4</t>
+  </si>
+  <si>
+    <t>Guardascoba Alcoba L4</t>
+  </si>
+  <si>
+    <t>Techo Alcoba  L4</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Patio L4</t>
+  </si>
+  <si>
+    <t>Pared Frontal Patio L4</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Patio L4</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Patio L4</t>
+  </si>
+  <si>
+    <t>Puerta Alcoba L4</t>
+  </si>
+  <si>
+    <t>Marco Ventana PLD Alcoba L4</t>
+  </si>
+  <si>
+    <t>Ventana PLD Alcoba L4</t>
+  </si>
+  <si>
+    <t>Piso Patio  L4</t>
+  </si>
+  <si>
+    <t>Guardascoba Patio L4</t>
+  </si>
+  <si>
+    <t>Techo Patio  L4</t>
+  </si>
+  <si>
+    <t>Marco Puerta Baño L4</t>
+  </si>
+  <si>
+    <t>Puerta Baño L4</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Baño L4</t>
+  </si>
+  <si>
+    <t>Piso Baño  L4</t>
+  </si>
+  <si>
+    <t>Guardascoba Baño L4</t>
+  </si>
+  <si>
+    <t>Techo Baño  L4</t>
+  </si>
+  <si>
+    <t>Marco Porton L5</t>
+  </si>
+  <si>
+    <t>Porton Local L5</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Local L5</t>
+  </si>
+  <si>
+    <t>Pared Frontal Local L5</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Local L5</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Local L5</t>
+  </si>
+  <si>
+    <t>Filos Columnas PFI Local  L5</t>
+  </si>
+  <si>
+    <t>Piso Local  L5</t>
+  </si>
+  <si>
+    <t>Guardascoba Local  L5</t>
+  </si>
+  <si>
+    <t>Techo Local  L5</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Baño L5</t>
+  </si>
+  <si>
+    <t>Pared Frontal Baño L5</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Baño L5</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Baño L5</t>
+  </si>
+  <si>
+    <t>Piso Baño  L5</t>
+  </si>
+  <si>
+    <t>Guardascoba Baño  L5</t>
+  </si>
+  <si>
+    <t>Techo Baño  L5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -873,7 +1129,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -2714,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,828 +3035,190 @@
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3610,10 +3228,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3678,42 +3296,42 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3723,7 +3341,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3733,32 +3351,82 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3768,722 +3436,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4545,216 +3501,604 @@
       <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" t="s">
-        <v>110</v>
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/leanCrm/datanew/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
@@ -2,29 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\leanCrm\datanew\physicalAreas\PhysicalAreas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalAreas" sheetId="2" r:id="rId1"/>
-    <sheet name="L1" sheetId="3" r:id="rId2"/>
-    <sheet name="L2" sheetId="1" r:id="rId3"/>
-    <sheet name="L3" sheetId="4" r:id="rId4"/>
-    <sheet name="L4" sheetId="7" r:id="rId5"/>
-    <sheet name="L5" sheetId="9" r:id="rId6"/>
+    <sheet name="L1P1" sheetId="3" r:id="rId2"/>
+    <sheet name="L2P1" sheetId="1" r:id="rId3"/>
+    <sheet name="L3P1" sheetId="4" r:id="rId4"/>
+    <sheet name="L4P1" sheetId="7" r:id="rId5"/>
+    <sheet name="L5P1" sheetId="9" r:id="rId6"/>
+    <sheet name="ARCO" sheetId="15" r:id="rId7"/>
+    <sheet name="A201" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="277">
   <si>
     <t>name</t>
   </si>
@@ -320,12 +322,6 @@
     <t>Filo Columna PLD Rincon L2</t>
   </si>
   <si>
-    <t>Marco Porton PFI Local L2</t>
-  </si>
-  <si>
-    <t>Marco  Porton PFI Local  L1</t>
-  </si>
-  <si>
     <t>Pared Fachada Interior Local L1</t>
   </si>
   <si>
@@ -335,45 +331,21 @@
     <t>Pared Fachada Interior Baño L1</t>
   </si>
   <si>
-    <t>Marco Puerta PFI Baño L1</t>
-  </si>
-  <si>
-    <t>Marco Puerta PFR Local L2</t>
-  </si>
-  <si>
-    <t>Marco Ventana PFR Local L2</t>
-  </si>
-  <si>
     <t>Pared Fachada Interior Baño L2</t>
   </si>
   <si>
-    <t>Marco Porton PFI Local L3</t>
-  </si>
-  <si>
     <t>Filos Columnas PFI Local  L3</t>
   </si>
   <si>
-    <t>Marco Puerta PFR Local L3</t>
-  </si>
-  <si>
-    <t>Marco Ventana PFR Local L3</t>
-  </si>
-  <si>
     <t>Pared Frontal Rincon L3</t>
   </si>
   <si>
-    <t>Pared Fachada Interior Baño L3</t>
-  </si>
-  <si>
     <t>Filo Columna PLD Baño L3</t>
   </si>
   <si>
     <t>Filo Columna PLI Baño L3</t>
   </si>
   <si>
-    <t>Puerta Local L3</t>
-  </si>
-  <si>
     <t>Pared Fachada Interior Local L4</t>
   </si>
   <si>
@@ -389,9 +361,6 @@
     <t>Filos Columnas PFI Local  L4</t>
   </si>
   <si>
-    <t>Marco Puerta PFR Local L4</t>
-  </si>
-  <si>
     <t>Pared Fachada Interior Baño L4</t>
   </si>
   <si>
@@ -407,15 +376,6 @@
     <t>Filo Columna PLI Baño L4</t>
   </si>
   <si>
-    <t>Marco Puerta PFI Local L4</t>
-  </si>
-  <si>
-    <t>Vacio PFR Local L4</t>
-  </si>
-  <si>
-    <t>Marco Puerta PLI Local L4</t>
-  </si>
-  <si>
     <t>Piso Local  L2</t>
   </si>
   <si>
@@ -488,9 +448,6 @@
     <t>Pared Lado Izquierdo Cocina L4</t>
   </si>
   <si>
-    <t>Marco Puerta PLD Cocina L4</t>
-  </si>
-  <si>
     <t>Piso Cocina  L4</t>
   </si>
   <si>
@@ -575,9 +532,6 @@
     <t>Techo Baño  L4</t>
   </si>
   <si>
-    <t>Marco Porton L5</t>
-  </si>
-  <si>
     <t>Porton Local L5</t>
   </si>
   <si>
@@ -624,12 +578,291 @@
   </si>
   <si>
     <t>Techo Baño  L5</t>
+  </si>
+  <si>
+    <t>Guardascoba Baño  L1</t>
+  </si>
+  <si>
+    <t>Guardascoba Cocina  L1</t>
+  </si>
+  <si>
+    <t>Marco Puerta Baño L2</t>
+  </si>
+  <si>
+    <t>Puerta Baño L2</t>
+  </si>
+  <si>
+    <t>Marco Vacio PLI Baño L2</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio PLI Baño L2</t>
+  </si>
+  <si>
+    <t>Filo Marco Porton Local L1</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Baño L1</t>
+  </si>
+  <si>
+    <t>Marco Vacio Pared Frontal Cocina L1</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio PLD Cocina L1</t>
+  </si>
+  <si>
+    <t>Filo Marco Porton Local L2</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana PLD Local L2</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Rincon L2</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Baño L2</t>
+  </si>
+  <si>
+    <t>Marco Porton Local L3</t>
+  </si>
+  <si>
+    <t>Filo Marco Porton Local L3</t>
+  </si>
+  <si>
+    <t>Marco Puerta Rincon L3</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Rincon L3</t>
+  </si>
+  <si>
+    <t>Puerta Baño L3</t>
+  </si>
+  <si>
+    <t>Marco Puerta Baño L3</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Baño L3</t>
+  </si>
+  <si>
+    <t>Puerta Local L4</t>
+  </si>
+  <si>
+    <t>Marco Puerta Local L4</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Local L4</t>
+  </si>
+  <si>
+    <t>Marco Puerta Cocina L4</t>
+  </si>
+  <si>
+    <t>Marco Puerta Alcoba L4</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Alcoba L4</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana PLD Alcoba L4</t>
+  </si>
+  <si>
+    <t>Marco Puerta Patio L4</t>
+  </si>
+  <si>
+    <t>Marco Vacio PFI Patio L4</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Baño L4</t>
+  </si>
+  <si>
+    <t>Marco Porton Local L5</t>
+  </si>
+  <si>
+    <t>Filo Marco Porton Local L5</t>
+  </si>
+  <si>
+    <t>Puerta Baño L5</t>
+  </si>
+  <si>
+    <t>Marco Puerta Baño L5</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Baño L5</t>
+  </si>
+  <si>
+    <t>Puerta Ingreso 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Marco Puerta Ingreso 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Ingreso 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Ingreso 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Pared Frontal Ingreso 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Ingreso 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Ingreso 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Guardascoba Ingreso 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Piso Ingreso 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Marco Ingreso Escalera 1 Piso</t>
+  </si>
+  <si>
+    <t>Escalera 1 Piso CL26</t>
+  </si>
+  <si>
+    <t>Placa 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Placa 3 Piso CL26</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Pasillo 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Pared Frontal Pasillo 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Pasillo 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Pasillo 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Piso Pasillo 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Guardascoba Pasillo 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Techo Pasillo 2 Piso CL26</t>
+  </si>
+  <si>
+    <t>Puerta A201</t>
+  </si>
+  <si>
+    <t>Marco Puerta A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta A201</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Pasillo A201</t>
+  </si>
+  <si>
+    <t>Pared Frontal Pasillo A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Pasillo A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Pasillo A201</t>
+  </si>
+  <si>
+    <t>Marco Puerta Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Pared Frontal Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Marco Ventana PFR Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Ventana PFR Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Filos Columna PLD Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Piso Pasillo A201</t>
+  </si>
+  <si>
+    <t>Guardascoba Pasillo A201</t>
+  </si>
+  <si>
+    <t>Techo Pasillo A201</t>
+  </si>
+  <si>
+    <t>Piso Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Guardascoba Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Techo Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Puerta Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Marco Puerta Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Pared Frontal Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Ventana PFR Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Marco Ventana PFR Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana PFR Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Columna Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Piso Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Guardascoba Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Techo Alcoba Principal A201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1129,7 +1362,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -2970,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,186 +3271,206 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3228,10 +3481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A30"/>
+      <selection activeCell="A26" sqref="A26:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,137 +3549,172 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3436,10 +3724,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,132 +3792,147 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3639,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,92 +4004,92 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -3796,157 +4099,177 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3956,10 +4279,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,87 +4341,541 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/leanCrm/datanew/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalAreas" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="L5P1" sheetId="9" r:id="rId6"/>
     <sheet name="ARCO" sheetId="15" r:id="rId7"/>
     <sheet name="A201" sheetId="16" r:id="rId8"/>
+    <sheet name="A202" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="459">
   <si>
     <t>name</t>
   </si>
@@ -688,66 +689,6 @@
     <t>Filo Marco Puerta Baño L5</t>
   </si>
   <si>
-    <t>Puerta Ingreso 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Marco Puerta Ingreso 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Filo Marco Puerta Ingreso 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pared Fachada Interior Ingreso 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pared Frontal Ingreso 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pared Lado Derecho Ingreso 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pared Lado Izquierdo Ingreso 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Guardascoba Ingreso 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Piso Ingreso 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Marco Ingreso Escalera 1 Piso</t>
-  </si>
-  <si>
-    <t>Escalera 1 Piso CL26</t>
-  </si>
-  <si>
-    <t>Placa 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Placa 3 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pared Fachada Interior Pasillo 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pared Frontal Pasillo 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pared Lado Derecho Pasillo 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Pared Lado Izquierdo Pasillo 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Piso Pasillo 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Guardascoba Pasillo 2 Piso CL26</t>
-  </si>
-  <si>
-    <t>Techo Pasillo 2 Piso CL26</t>
-  </si>
-  <si>
     <t>Puerta A201</t>
   </si>
   <si>
@@ -817,53 +758,659 @@
     <t>Techo Sala Comedor A201</t>
   </si>
   <si>
-    <t>Puerta Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Marco Puerta Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Filo Marco Puerta Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Pared Fachada Interior Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Pared Frontal Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Pared Lado Derecho Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Pared Lado Izquierdo Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Ventana PFR Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Marco Ventana PFR Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Filo Marco Ventana PFR Alcoba Principal A201</t>
-  </si>
-  <si>
     <t>Columna Sala Comedor A201</t>
   </si>
   <si>
-    <t>Piso Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Guardascoba Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Techo Alcoba Principal A201</t>
+    <t>Puerta Baño A201</t>
+  </si>
+  <si>
+    <t>Marco Puerta Baño A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Baño A201</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Baño A201</t>
+  </si>
+  <si>
+    <t>Pared Frontal Baño A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Baño A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Baño A201</t>
+  </si>
+  <si>
+    <t>Marco Vacio PFR Baño A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio PFR Baño A201</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Baño A201</t>
+  </si>
+  <si>
+    <t>Filo Columna PLD Baño A201</t>
+  </si>
+  <si>
+    <t>Piso Baño A201</t>
+  </si>
+  <si>
+    <t>Guardascoba Baño A201</t>
+  </si>
+  <si>
+    <t>Techo Baño A201</t>
+  </si>
+  <si>
+    <t>Marco Vacio PFI Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio PFI Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Puerta Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Marco Puerta Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Pared Frontal Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Puerta Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Marco Puerta Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Pared Frontal Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Ventana PFR Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Marco Ventana PFR Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana PFR Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Piso Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Guardascoba Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Techo Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Marco Ventana Calados PFR Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PFI Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PFI Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Filo3 Columna PFI Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Filo4 Columna PFI Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PLI Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Filo5 Horizontal PFI Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Piso Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Guardascoba Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Techo Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Marco Vacio Balcon A201</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Balcon A201</t>
+  </si>
+  <si>
+    <t>Pared Frontal Balcon A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Balcon A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Balcon A201</t>
+  </si>
+  <si>
+    <t>Ventana Balcon A201</t>
+  </si>
+  <si>
+    <t>Marco Ventana Balcon A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana Balcon A201</t>
+  </si>
+  <si>
+    <t>Piso Balcon A201</t>
+  </si>
+  <si>
+    <t>Guardascoba Balcon A201</t>
+  </si>
+  <si>
+    <t>Techo Balcon A201</t>
+  </si>
+  <si>
+    <t>Puerta A202</t>
+  </si>
+  <si>
+    <t>Marco Puerta A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta A202</t>
+  </si>
+  <si>
+    <t>Pared Frontal Pasillo A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Pasillo A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Pasillo A202</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PFI Pasillo A202</t>
+  </si>
+  <si>
+    <t>Piso Pasillo A202</t>
+  </si>
+  <si>
+    <t>Guardascoba Pasillo A202</t>
+  </si>
+  <si>
+    <t>Techo Pasillo A202</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Pared Frontal Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Ventana Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Marco Ventana Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PFR Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PFR Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Puerta Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Marco Puerta Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Pared Frontal Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Ventana PFR Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Marco Ventana PFR Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana PFR Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Piso Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Guardascoba Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Techo Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Puerta Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Marco Puerta Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Pared Frontal Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Ventana PFR Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Marco Ventana PFR Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana PFR Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Piso Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Guardascoba Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Techo Balcon Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Puerta Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Marco Puerta Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Pared Frontal Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Ventana PFR Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Marco Ventana PFR Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana PFR Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Piso Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Guardascoba Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Techo Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Puerta Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Marco Puerta Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Pared Frontal Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Ventana PFR Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Marco Ventana PFR Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana PFR Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Piso Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Guardascoba Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Techo Balcon Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Filo Columna PLD Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Puerta Baño A202</t>
+  </si>
+  <si>
+    <t>Marco Puerta Baño A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Baño A202</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Baño A202</t>
+  </si>
+  <si>
+    <t>Pared Frontal Baño A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Baño A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Baño A202</t>
+  </si>
+  <si>
+    <t>Piso Baño A202</t>
+  </si>
+  <si>
+    <t>Guardascoba Baño A202</t>
+  </si>
+  <si>
+    <t>Techo Baño A202</t>
+  </si>
+  <si>
+    <t>Marco Puerta Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Pared Frontal Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Marco Vacio PFI Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio PFI Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI</t>
+  </si>
+  <si>
+    <t>Piso Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Guardascoba Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Techo Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Marco Puerta Cocina A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Cocina A202</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Cocina A202</t>
+  </si>
+  <si>
+    <t>Pared Frontal Cocina A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Cocina A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Cocina A202</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Cocina A202</t>
+  </si>
+  <si>
+    <t>Filo Columna PLD Cocina A202</t>
+  </si>
+  <si>
+    <t>Piso Cocina A202</t>
+  </si>
+  <si>
+    <t>Guardascoba Cocina A202</t>
+  </si>
+  <si>
+    <t>Techo Cocina A202</t>
+  </si>
+  <si>
+    <t>Puerta Balcon A202</t>
+  </si>
+  <si>
+    <t>Marco Puerta Balcon A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Balcon A202</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Balcon A202</t>
+  </si>
+  <si>
+    <t>Pared Frontal Balcon A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Balcon A202</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Balcon A202</t>
+  </si>
+  <si>
+    <t>Marco Vacio PFR Balcon A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio PFR Balcon A202</t>
+  </si>
+  <si>
+    <t>Marco Vacio PLD Balcon A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio PLD Balcon A202</t>
+  </si>
+  <si>
+    <t>Piso Balcon A202</t>
+  </si>
+  <si>
+    <t>Guardascoba Balcon A202</t>
+  </si>
+  <si>
+    <t>Techo Balcon A202</t>
+  </si>
+  <si>
+    <t>Pared Fachada Piso1 CR23</t>
+  </si>
+  <si>
+    <t>Pared Fachada Piso1 CL46</t>
+  </si>
+  <si>
+    <t>Pared Fachada Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Pared Fachada Piso2 CL46</t>
+  </si>
+  <si>
+    <t>Filo Marco Exterior Fachada Puerta L4</t>
+  </si>
+  <si>
+    <t>Filo Marco Interior Fachada Puerta L4</t>
+  </si>
+  <si>
+    <t>Filo Marco Exterior Fachada Puerta Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Filo Marco Interior Fachada Puerta Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Placa Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Placa Piso3 CL26</t>
+  </si>
+  <si>
+    <t>Techo Pasillo Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Guardascoba Pasillo Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Piso Pasillo Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Pasillo Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Pasillo Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Pared Frontal Pasillo Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Pasillo Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Escalera Piso1 CL26</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Pared Frontal Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Marco Ingreso Escalera Piso1</t>
+  </si>
+  <si>
+    <t>Guardascoba Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Piso Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Marco Puerta Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Puerta Ingreso Piso2 CL26</t>
+  </si>
+  <si>
+    <t>Techo Fachada Piso1 CL46</t>
+  </si>
+  <si>
+    <t>Techo Fachada Piso1 CR23</t>
+  </si>
+  <si>
+    <t>Techo Fachada Piso2 CL46</t>
+  </si>
+  <si>
+    <t>Techo Fachada Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Filo Placa Fachada Piso3 CR23</t>
+  </si>
+  <si>
+    <t>Filo Placa Fachada Piso3 CL46</t>
+  </si>
+  <si>
+    <t>Anden Fachada CR23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,6 +1541,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1180,7 +1735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1295,6 +1850,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1340,8 +1910,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3205,14 +3777,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3265,217 +3837,260 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3483,14 +4098,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A28"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3543,182 +4158,218 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3726,14 +4377,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3786,157 +4437,188 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3944,13 +4626,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4003,277 +4686,332 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="B56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4281,13 +5019,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4340,126 +5079,149 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4512,136 +5274,251 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>220</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>221</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>222</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>223</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>224</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>225</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>228</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>227</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>229</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>223</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>224</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>225</v>
-      </c>
+      <c r="A14" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>226</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>232</v>
-      </c>
+      <c r="A16" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4694,191 +5571,1300 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>276</v>
-      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B83" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B125" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/leanCrm/datanew/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalAreas/data/PhysicalAreas.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\leanCrm\datanew\physicalAreas\PhysicalAreas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalAreas" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="A201" sheetId="16" r:id="rId8"/>
     <sheet name="A202" sheetId="17" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="512">
   <si>
     <t>name</t>
   </si>
@@ -311,9 +311,6 @@
     <t>Pared Lado Izquierdo Baño L3</t>
   </si>
   <si>
-    <t>Filos Columnas PFI Local  L2</t>
-  </si>
-  <si>
     <t>Marco Ventana PLD Local L2</t>
   </si>
   <si>
@@ -332,12 +329,6 @@
     <t>Pared Fachada Interior Baño L1</t>
   </si>
   <si>
-    <t>Pared Fachada Interior Baño L2</t>
-  </si>
-  <si>
-    <t>Filos Columnas PFI Local  L3</t>
-  </si>
-  <si>
     <t>Pared Frontal Rincon L3</t>
   </si>
   <si>
@@ -359,9 +350,6 @@
     <t>Pared Lado Izquierdo Local L4</t>
   </si>
   <si>
-    <t>Filos Columnas PFI Local  L4</t>
-  </si>
-  <si>
     <t>Pared Fachada Interior Baño L4</t>
   </si>
   <si>
@@ -470,12 +458,6 @@
     <t>Pared Lado Izquierdo Alcoba L4</t>
   </si>
   <si>
-    <t>Filos Columna PFI Alcoba L4</t>
-  </si>
-  <si>
-    <t>Filo Columna PLI Alcoba L4</t>
-  </si>
-  <si>
     <t>Piso Alcoba  L4</t>
   </si>
   <si>
@@ -605,12 +587,6 @@
     <t>Filo Marco Puerta Baño L1</t>
   </si>
   <si>
-    <t>Marco Vacio Pared Frontal Cocina L1</t>
-  </si>
-  <si>
-    <t>Filo Marco Vacio PLD Cocina L1</t>
-  </si>
-  <si>
     <t>Filo Marco Porton Local L2</t>
   </si>
   <si>
@@ -620,9 +596,6 @@
     <t>Filo Marco Puerta Rincon L2</t>
   </si>
   <si>
-    <t>Filo Marco Puerta Baño L2</t>
-  </si>
-  <si>
     <t>Marco Porton Local L3</t>
   </si>
   <si>
@@ -698,9 +671,6 @@
     <t>Filo Marco Puerta A201</t>
   </si>
   <si>
-    <t>Pared Fachada Interior Pasillo A201</t>
-  </si>
-  <si>
     <t>Pared Frontal Pasillo A201</t>
   </si>
   <si>
@@ -734,9 +704,6 @@
     <t>Ventana PFR Sala Comedor A201</t>
   </si>
   <si>
-    <t>Filos Columna PLD Sala Comedor A201</t>
-  </si>
-  <si>
     <t>Filo Columna PFR Sala Comedor A201</t>
   </si>
   <si>
@@ -782,12 +749,6 @@
     <t>Pared Lado Izquierdo Baño A201</t>
   </si>
   <si>
-    <t>Marco Vacio PFR Baño A201</t>
-  </si>
-  <si>
-    <t>Filo Marco Vacio PFR Baño A201</t>
-  </si>
-  <si>
     <t>Filo Columna PFR Baño A201</t>
   </si>
   <si>
@@ -917,12 +878,6 @@
     <t>Ventana Balcon A201</t>
   </si>
   <si>
-    <t>Marco Ventana Balcon A201</t>
-  </si>
-  <si>
-    <t>Filo Marco Ventana Balcon A201</t>
-  </si>
-  <si>
     <t>Piso Balcon A201</t>
   </si>
   <si>
@@ -974,15 +929,6 @@
     <t>Pared Lado Izquierdo Sala Comedor A202</t>
   </si>
   <si>
-    <t>Ventana Sala Comedor A202</t>
-  </si>
-  <si>
-    <t>Marco Ventana Sala Comedor A202</t>
-  </si>
-  <si>
-    <t>Filo Marco Ventana Sala Comedor A202</t>
-  </si>
-  <si>
     <t>Filo1 Columna PFR Sala Comedor A202</t>
   </si>
   <si>
@@ -1019,9 +965,6 @@
     <t>Filo Marco Ventana PFR Alcoba1 A202</t>
   </si>
   <si>
-    <t>Filo Columna PFR Alcoba1 A202</t>
-  </si>
-  <si>
     <t>Filo Columna PLI Alcoba1 A202</t>
   </si>
   <si>
@@ -1211,12 +1154,6 @@
     <t>Filo Marco Vacio PFI Baño Cocina A202</t>
   </si>
   <si>
-    <t>Filo Columna PFR</t>
-  </si>
-  <si>
-    <t>Filo Columna PLI</t>
-  </si>
-  <si>
     <t>Piso Baño Cocina A202</t>
   </si>
   <si>
@@ -1244,9 +1181,6 @@
     <t>Pared Lado Izquierdo Cocina A202</t>
   </si>
   <si>
-    <t>Filo Columna PFR Cocina A202</t>
-  </si>
-  <si>
     <t>Filo Columna PLD Cocina A202</t>
   </si>
   <si>
@@ -1319,72 +1253,6 @@
     <t>Filo Marco Interior Fachada Puerta L4</t>
   </si>
   <si>
-    <t>Filo Marco Exterior Fachada Puerta Ingreso Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Filo Marco Interior Fachada Puerta Ingreso Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Placa Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Placa Piso3 CL26</t>
-  </si>
-  <si>
-    <t>Techo Pasillo Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Guardascoba Pasillo Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Piso Pasillo Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Pared Lado Izquierdo Pasillo Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Pared Lado Derecho Pasillo Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Pared Frontal Pasillo Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Pared Fachada Interior Pasillo Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Escalera Piso1 CL26</t>
-  </si>
-  <si>
-    <t>Pared Lado Izquierdo Ingreso Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Pared Lado Derecho Ingreso Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Pared Frontal Ingreso Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Pared Fachada Interior Ingreso Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Marco Ingreso Escalera Piso1</t>
-  </si>
-  <si>
-    <t>Guardascoba Ingreso Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Piso Ingreso Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Filo Marco Puerta Ingreso Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Marco Puerta Ingreso Piso2 CL26</t>
-  </si>
-  <si>
-    <t>Puerta Ingreso Piso2 CL26</t>
-  </si>
-  <si>
     <t>Techo Fachada Piso1 CL46</t>
   </si>
   <si>
@@ -1404,12 +1272,306 @@
   </si>
   <si>
     <t>Anden Fachada CR23</t>
+  </si>
+  <si>
+    <t>Filo Columnas PFI Local  L1</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PFR Local1</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PFR Local1</t>
+  </si>
+  <si>
+    <t>Filo3 Columna PFR Local1</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PLD Local  L1</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PLD Local  L1</t>
+  </si>
+  <si>
+    <t>Filo3 Columna PLD Local  L1</t>
+  </si>
+  <si>
+    <t>Filo4 Columna PLD Local  L1</t>
+  </si>
+  <si>
+    <t>Filo1 Columnas PLI Local  L1</t>
+  </si>
+  <si>
+    <t>Filo2 Columnas PLI Local  L1</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PLD Baño L1</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PLD Baño L1</t>
+  </si>
+  <si>
+    <t>Barra de la Cocina L1</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI Local L2</t>
+  </si>
+  <si>
+    <t>Filo Columna PFI Local  L2</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI Baño L2</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PFI Local  L3</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PFI Local  L3</t>
+  </si>
+  <si>
+    <t>Filos Marco Caja Eléctrica L3</t>
+  </si>
+  <si>
+    <t>Filo Columna PLD Local L3</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI Local L3</t>
+  </si>
+  <si>
+    <t>Marco Vacio PLI Baño L3</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio PLI Baño L3</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PFI Local  L4</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PFI Local  L4</t>
+  </si>
+  <si>
+    <t>Filo Marco PFI Caja eléctrica Local L4</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PFI Alcoba L4</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PFI Alcoba L4</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Alcoba L4</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PLI Alcoba L4</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PLI Alcoba L4</t>
+  </si>
+  <si>
+    <t>Filo Puerta Patio L4</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Patio L4</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI Patio L4</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PLD Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PLD Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Filo1 Horizontal PFR Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Filo2 Horizontal PFR Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Marco Vacio PFI Baño A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio PFI Baño A201</t>
+  </si>
+  <si>
+    <t>Marco Ventana PFR Balcon A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana PFR Balcon A201</t>
+  </si>
+  <si>
+    <t>Puerta Cocina A201</t>
+  </si>
+  <si>
+    <t>Marco Puerta Cocina A201</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Cocina A201</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Cocina A201</t>
+  </si>
+  <si>
+    <t>Pared Frontal Cocina A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Cocina A201</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Cocina A201</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Cocina A201</t>
+  </si>
+  <si>
+    <t>Filo Columna PLD Cocina A201</t>
+  </si>
+  <si>
+    <t>Piso Cocina A201</t>
+  </si>
+  <si>
+    <t>Guardascoba Cocina A201</t>
+  </si>
+  <si>
+    <t>Techo Local Cocina A201</t>
+  </si>
+  <si>
+    <t>Ventana PLD Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Marco Ventana PLD Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Filo Marco Ventana PLD Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Filo Columna PLD Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Filo Horizontal PFI Alcoba2 A202</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Puerta Ingreso Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Marco Puerta Ingreso Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Filo Marco Puerta Ingreso Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Ingreso Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Pared Frontal Ingreso Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Ingreso Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Piso Ingreso Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Guardascoba Ingreso Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Marco Ingreso Escalera Piso1 CR23</t>
+  </si>
+  <si>
+    <t>Escalera Piso1 CR23</t>
+  </si>
+  <si>
+    <t>Pared Frontal Pasillo Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Piso Pasillo Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Guardascoba Pasillo Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Techo Pasillo Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Placa Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Placa Piso3 CR23</t>
+  </si>
+  <si>
+    <t>Filo Marco Exterior Fachada Puerta Ingreso Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Filo Marco Interior Fachada Puerta Ingreso Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Pared Fachada Interior Escalera Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Pared Frontal Escalera Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Pared Lado Derecho Escalera Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Pared Lado Izquierdo Escalera Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Filo Marco Ingreso Escalera Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Filo Columna PLI Escalera Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Marco Puerta Pasillo Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Filo Columna PFR Pasillo Piso2 CR23</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PFR Cocina A202</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PFR Cocina A202</t>
+  </si>
+  <si>
+    <t>Filo1 Columna PLI Cocina A202</t>
+  </si>
+  <si>
+    <t>Filo2 Columna PLI Cocina A202</t>
+  </si>
+  <si>
+    <t>Marco Vacio PLI Cocina L2</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio PLI Cocina L2</t>
+  </si>
+  <si>
+    <t>Piso Garaje L1</t>
+  </si>
+  <si>
+    <t>Pared de mediania Garaje L1</t>
+  </si>
+  <si>
+    <t>Filo Marco Vacio Placa Piso3</t>
+  </si>
+  <si>
+    <t>Marco Vacio Placa Piso3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1735,7 +1897,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1865,6 +2027,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1910,10 +2083,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1934,7 +2109,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -3775,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3841,256 +4016,373 @@
         <v>44</v>
       </c>
       <c r="B3" s="1"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B5" s="1"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
       <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>416</v>
       </c>
       <c r="B11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>417</v>
       </c>
       <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>418</v>
       </c>
       <c r="B13" s="1"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>419</v>
       </c>
       <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4098,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4171,7 +4463,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -4201,169 +4493,169 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>429</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>428</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>430</v>
       </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B37" s="1"/>
     </row>
@@ -4375,10 +4667,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,13 +4736,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -4480,141 +4772,177 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>431</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>432</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>434</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>435</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>433</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4624,10 +4952,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B56"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4687,327 +5015,375 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>438</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>440</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>441</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>150</v>
+        <v>442</v>
       </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>151</v>
+        <v>443</v>
       </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>212</v>
+        <v>444</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>152</v>
+        <v>445</v>
       </c>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>159</v>
+        <v>446</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>214</v>
+        <v>447</v>
       </c>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>448</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5019,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5080,127 +5456,127 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B23" s="1"/>
     </row>
@@ -5212,10 +5588,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B40"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5275,231 +5651,257 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>510</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5509,10 +5911,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B83"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,37 +5974,37 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -5614,447 +6016,519 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>236</v>
+        <v>449</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>235</v>
+        <v>450</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>243</v>
+        <v>451</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>240</v>
+        <v>452</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>253</v>
+        <v>453</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>254</v>
+        <v>454</v>
       </c>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>298</v>
+        <v>455</v>
       </c>
       <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>299</v>
+        <v>456</v>
       </c>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>468</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6064,10 +6538,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B125"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6127,741 +6601,777 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>315</v>
+        <v>469</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>316</v>
+        <v>470</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>317</v>
+        <v>471</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>330</v>
+        <v>472</v>
       </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>358</v>
+        <v>473</v>
       </c>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>383</v>
+      <c r="A85" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>384</v>
+      <c r="A86" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="B93" s="1"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>395</v>
+        <v>474</v>
       </c>
       <c r="B97" s="1"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>396</v>
+        <v>475</v>
       </c>
       <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="B102" s="1"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>406</v>
+        <v>506</v>
       </c>
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>407</v>
+        <v>507</v>
       </c>
       <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>409</v>
+        <v>503</v>
       </c>
       <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>411</v>
+        <v>504</v>
       </c>
       <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>412</v>
+        <v>505</v>
       </c>
       <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B131" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
